--- a/data/classifier_test/broad_assets_ht_trendmode_lag2_test.xlsx
+++ b/data/classifier_test/broad_assets_ht_trendmode_lag2_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44018</v>
+        <v>43948</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -541,19 +541,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44025</v>
+        <v>43955</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44032</v>
+        <v>43962</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44039</v>
+        <v>43969</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44046</v>
+        <v>43973</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -682,18 +682,18 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44053</v>
+        <v>43983</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -705,22 +705,22 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44060</v>
+        <v>43990</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44067</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44074</v>
+        <v>44004</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078</v>
+        <v>44011</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44088</v>
+        <v>44018</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -921,22 +921,22 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44095</v>
+        <v>44025</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -945,21 +945,21 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44102</v>
+        <v>44032</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -968,19 +968,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44109</v>
+        <v>44039</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1021,21 +1021,21 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44116</v>
+        <v>44046</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44123</v>
+        <v>44053</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1091,19 +1091,19 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44130</v>
+        <v>44060</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44137</v>
+        <v>44067</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144</v>
+        <v>44074</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44151</v>
+        <v>44078</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1243,16 +1243,16 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158</v>
+        <v>44088</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1272,16 +1272,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1296,12 +1296,12 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44165</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1328,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44172</v>
+        <v>44102</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1357,19 +1357,19 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44179</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1401,21 +1401,21 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44116</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44193</v>
+        <v>44123</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1462,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1474,13 +1474,13 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44200</v>
+        <v>44130</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44211</v>
+        <v>44144</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44221</v>
+        <v>44151</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44228</v>
+        <v>44158</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1652,16 +1652,16 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1670,18 +1670,18 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44235</v>
+        <v>44165</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1690,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1719,16 +1719,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1778,13 +1778,13 @@
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44186</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -1822,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -1833,19 +1833,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44263</v>
+        <v>44193</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1860,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44270</v>
+        <v>44200</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1880,19 +1880,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44277</v>
+        <v>44207</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1997,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -2023,37 +2023,37 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44298</v>
+        <v>44228</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2085,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2099,22 +2099,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2132,12 +2132,12 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -2158,13 +2158,13 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44326</v>
+        <v>44256</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -2202,10 +2202,10 @@
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44333</v>
+        <v>44263</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -2260,22 +2260,22 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2365,22 +2365,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44361</v>
+        <v>44291</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -2403,13 +2403,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44368</v>
+        <v>44298</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44375</v>
+        <v>44305</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2465,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44379</v>
+        <v>44312</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -2503,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -2550,12 +2550,12 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -2623,15 +2623,15 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2640,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2655,13 +2655,13 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44417</v>
+        <v>44344</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -2699,18 +2699,18 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44424</v>
+        <v>44354</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -2745,13 +2745,13 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44361</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44438</v>
+        <v>44368</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2792,13 +2792,13 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2810,18 +2810,18 @@
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44442</v>
+        <v>44375</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>1</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44452</v>
+        <v>44379</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2868,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -2892,12 +2892,12 @@
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -2924,21 +2924,21 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -2953,19 +2953,19 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2994,27 +2994,27 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -3038,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44487</v>
+        <v>44417</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3064,13 +3064,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -3079,15 +3079,15 @@
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44494</v>
+        <v>44424</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -3125,19 +3125,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44501</v>
+        <v>44431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -3152,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44508</v>
+        <v>44438</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -3172,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3196,12 +3196,12 @@
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44515</v>
+        <v>44442</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3225,13 +3225,13 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -3266,18 +3266,18 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -3301,30 +3301,30 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44536</v>
+        <v>44466</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -3391,10 +3391,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -3429,22 +3429,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44557</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3467,22 +3467,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44564</v>
+        <v>44494</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3497,27 +3497,27 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -3529,13 +3529,13 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44575</v>
+        <v>44508</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44585</v>
+        <v>44515</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44592</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3643,21 +3643,21 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3681,21 +3681,21 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44606</v>
+        <v>44536</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3704,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44610</v>
+        <v>44543</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -3742,16 +3742,16 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3760,10 +3760,10 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44620</v>
+        <v>44550</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -3795,10 +3795,10 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -3809,19 +3809,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44627</v>
+        <v>44557</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -3830,13 +3830,13 @@
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -3847,22 +3847,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44634</v>
+        <v>44564</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3877,15 +3877,15 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44641</v>
+        <v>44571</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -3894,22 +3894,22 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44648</v>
+        <v>44575</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -3935,13 +3935,13 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44655</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -3985,10 +3985,10 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44662</v>
+        <v>44592</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44669</v>
+        <v>44599</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44676</v>
+        <v>44606</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4099,21 +4099,21 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44683</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4140,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44690</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4175,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44697</v>
+        <v>44627</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -4210,13 +4210,13 @@
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44704</v>
+        <v>44634</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4260,12 +4260,12 @@
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44708</v>
+        <v>44641</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44718</v>
+        <v>44648</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -4315,19 +4315,19 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -4336,12 +4336,12 @@
         <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44725</v>
+        <v>44655</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44732</v>
+        <v>44662</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44739</v>
+        <v>44669</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44743</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4488,18 +4488,18 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44753</v>
+        <v>44683</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44760</v>
+        <v>44690</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44767</v>
+        <v>44697</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
@@ -4607,10 +4607,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44774</v>
+        <v>44704</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4640,12 +4640,12 @@
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44781</v>
+        <v>44708</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -4716,12 +4716,12 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44795</v>
+        <v>44725</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44802</v>
+        <v>44732</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44806</v>
+        <v>44739</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44816</v>
+        <v>44743</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44823</v>
+        <v>44753</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44830</v>
+        <v>44760</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44837</v>
+        <v>44767</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44844</v>
+        <v>44774</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -5002,10 +5002,10 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44851</v>
+        <v>44781</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44858</v>
+        <v>44788</v>
       </c>
       <c r="B122" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44865</v>
+        <v>44795</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -5113,16 +5113,16 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44872</v>
+        <v>44802</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>1</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44879</v>
+        <v>44806</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -5201,21 +5201,21 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44886</v>
+        <v>44816</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5227,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44900</v>
+        <v>44830</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44914</v>
+        <v>44844</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5405,10 +5405,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44851</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -5423,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44925</v>
+        <v>44858</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44935</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -5490,13 +5490,13 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5508,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44939</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5546,18 +5546,18 @@
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44949</v>
+        <v>44879</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -5566,16 +5566,16 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -5590,12 +5590,12 @@
         <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44963</v>
+        <v>44893</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44970</v>
+        <v>44900</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -5721,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -5762,10 +5762,10 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44991</v>
+        <v>44918</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -5803,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -5823,13 +5823,13 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44998</v>
+        <v>44925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -5861,19 +5861,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45005</v>
+        <v>44935</v>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -5929,15 +5929,15 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45019</v>
+        <v>44949</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
@@ -5946,16 +5946,16 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -5964,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
         <v>1</v>
@@ -5975,10 +5975,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45026</v>
+        <v>44956</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -5996,10 +5996,10 @@
         <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45033</v>
+        <v>44963</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45040</v>
+        <v>44970</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45047</v>
+        <v>44974</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -6098,10 +6098,10 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -6127,25 +6127,25 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45054</v>
+        <v>44984</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45061</v>
+        <v>44991</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -6177,13 +6177,13 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -6195,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" t="n">
         <v>1</v>
@@ -6203,31 +6203,31 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45068</v>
+        <v>44998</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -6241,13 +6241,13 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45072</v>
+        <v>45005</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -6262,16 +6262,16 @@
         <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="n">
         <v>1</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45082</v>
+        <v>45012</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -6303,13 +6303,13 @@
         <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>1</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45089</v>
+        <v>45019</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
         <v>1</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45096</v>
+        <v>45026</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -6373,13 +6373,13 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45103</v>
+        <v>45033</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45110</v>
+        <v>45040</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" t="n">
         <v>1</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45117</v>
+        <v>45047</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -6478,10 +6478,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -6490,13 +6490,13 @@
         <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="n">
         <v>1</v>
@@ -6507,19 +6507,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45124</v>
+        <v>45054</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -6528,16 +6528,16 @@
         <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>1</v>
@@ -6545,25 +6545,25 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45131</v>
+        <v>45061</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -6572,27 +6572,27 @@
         <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45138</v>
+        <v>45068</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -6601,13 +6601,13 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -6645,13 +6645,13 @@
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>1</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45152</v>
+        <v>45082</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -6683,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" t="n">
         <v>1</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45159</v>
+        <v>45089</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6727,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45166</v>
+        <v>45096</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45170</v>
+        <v>45103</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45180</v>
+        <v>45110</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -6838,27 +6838,27 @@
         <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
         <v>1</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45187</v>
+        <v>45117</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -6876,10 +6876,10 @@
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169" t="n">
         <v>1</v>
@@ -6887,19 +6887,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45194</v>
+        <v>45124</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -6908,16 +6908,16 @@
         <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" t="n">
         <v>1</v>
@@ -6925,10 +6925,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45201</v>
+        <v>45131</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -6937,33 +6937,33 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45208</v>
+        <v>45138</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -6975,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45215</v>
+        <v>45145</v>
       </c>
       <c r="B173" t="n">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>1</v>
@@ -7028,18 +7028,18 @@
         <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
         <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45222</v>
+        <v>45152</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7066,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
         <v>1</v>
@@ -7077,10 +7077,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45229</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>1</v>
@@ -7115,7 +7115,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45236</v>
+        <v>45166</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7142,18 +7142,18 @@
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45243</v>
+        <v>45170</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
@@ -7180,18 +7180,18 @@
         <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45250</v>
+        <v>45180</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -7203,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>1</v>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
@@ -7229,37 +7229,37 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45257</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7267,19 +7267,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45264</v>
+        <v>45194</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7305,37 +7305,37 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45271</v>
+        <v>45201</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45278</v>
+        <v>45208</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>1</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45282</v>
+        <v>45215</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -7405,21 +7405,21 @@
         <v>1</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45289</v>
+        <v>45222</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45299</v>
+        <v>45229</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45303</v>
+        <v>45236</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -7522,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" t="n">
         <v>1</v>
@@ -7533,19 +7533,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45313</v>
+        <v>45243</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
         <v>1</v>
@@ -7560,10 +7560,10 @@
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45320</v>
+        <v>45250</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -7601,15 +7601,15 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45327</v>
+        <v>45257</v>
       </c>
       <c r="B189" t="n">
         <v>1</v>
@@ -7621,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7636,7 +7636,7 @@
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
         <v>1</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45334</v>
+        <v>45264</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -7659,19 +7659,19 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45338</v>
+        <v>45271</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -7715,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
         <v>1</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45348</v>
+        <v>45278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -7753,15 +7753,15 @@
         <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45355</v>
+        <v>45282</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -7782,24 +7782,24 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
         <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45362</v>
+        <v>45289</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
@@ -7829,15 +7829,15 @@
         <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45369</v>
+        <v>45299</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -7864,18 +7864,18 @@
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
         <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45376</v>
+        <v>45303</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -7908,15 +7908,15 @@
         <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45383</v>
+        <v>45313</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -7940,18 +7940,18 @@
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45390</v>
+        <v>45320</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -7960,10 +7960,10 @@
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -7975,13 +7975,13 @@
         <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>1</v>
@@ -7989,31 +7989,31 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
@@ -8027,13 +8027,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45404</v>
+        <v>45334</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>1</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45411</v>
+        <v>45338</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>1</v>
@@ -8086,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -8095,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45418</v>
+        <v>45348</v>
       </c>
       <c r="B202" t="n">
         <v>1</v>
@@ -8115,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
         <v>1</v>
@@ -8124,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -8133,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="K202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>0</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45425</v>
+        <v>45355</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45432</v>
+        <v>45362</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -8206,18 +8206,18 @@
         <v>1</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45369</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -8247,15 +8247,15 @@
         <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45446</v>
+        <v>45376</v>
       </c>
       <c r="B206" t="n">
         <v>1</v>
@@ -8293,13 +8293,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45453</v>
+        <v>45383</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -8320,18 +8320,18 @@
         <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45460</v>
+        <v>45390</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
@@ -8358,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
         <v>1</v>
@@ -8369,16 +8369,16 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45467</v>
+        <v>45397</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -8390,13 +8390,13 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K209" t="n">
         <v>1</v>
@@ -8407,28 +8407,28 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45474</v>
+        <v>45404</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -8445,7 +8445,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45481</v>
+        <v>45411</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -8457,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
         <v>1</v>
@@ -8478,12 +8478,12 @@
         <v>1</v>
       </c>
       <c r="L211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45488</v>
+        <v>45418</v>
       </c>
       <c r="B212" t="n">
         <v>1</v>
@@ -8495,10 +8495,10 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8507,21 +8507,21 @@
         <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45495</v>
+        <v>45425</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -8530,19 +8530,19 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -8554,30 +8554,30 @@
         <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45502</v>
+        <v>45432</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
@@ -8586,21 +8586,21 @@
         <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" t="n">
         <v>1</v>
       </c>
       <c r="L214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45509</v>
+        <v>45436</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -8618,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>1</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45516</v>
+        <v>45446</v>
       </c>
       <c r="B216" t="n">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -8656,13 +8656,13 @@
         <v>1</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" t="n">
         <v>1</v>
@@ -8673,7 +8673,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45523</v>
+        <v>45453</v>
       </c>
       <c r="B217" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -8703,15 +8703,15 @@
         <v>1</v>
       </c>
       <c r="K217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45460</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -8720,28 +8720,28 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" t="n">
         <v>1</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
       </c>
       <c r="K218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>1</v>
@@ -8749,39 +8749,419 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1</v>
-      </c>
-      <c r="L219" t="n">
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
         <v>1</v>
       </c>
     </row>
